--- a/analysis/Sleep Data Analysis.xlsx
+++ b/analysis/Sleep Data Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerwong/Documents/workspace/research lab/happy_teacher/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerwong/Documents/workspace/research lab/happy_teacher/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472EC1E-FD90-044A-8BDB-CD281FAE6B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D946CE1C-71EF-1B48-B3D1-43575A86E732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,27 +21,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>#DaysofIntervention</t>
+    <t>SleepWeek</t>
   </si>
   <si>
-    <t>DaysAfterConsent</t>
+    <t>DOI</t>
   </si>
   <si>
-    <t>TotalSleepRecords</t>
+    <t>DAC</t>
   </si>
   <si>
-    <t>TotalMinutesAsleep</t>
+    <t>Key:</t>
   </si>
   <si>
-    <t>TotalTimeInBed</t>
+    <t>TSR</t>
   </si>
   <si>
-    <t>SleepWeek</t>
+    <t>TMA</t>
+  </si>
+  <si>
+    <t>TTIB</t>
+  </si>
+  <si>
+    <t>Total Sleep Records</t>
+  </si>
+  <si>
+    <t>Total Minutes Asleep</t>
+  </si>
+  <si>
+    <t>Total Time in Bed</t>
+  </si>
+  <si>
+    <t>Days of Intervention</t>
+  </si>
+  <si>
+    <t>Days After Consent</t>
   </si>
 </sst>
 </file>
@@ -66,12 +84,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -101,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -115,11 +139,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,47 +454,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10101</v>
       </c>
@@ -473,20 +504,20 @@
       <c r="C2" s="4">
         <v>24</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>487</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>10102</v>
       </c>
@@ -496,20 +527,20 @@
       <c r="C3" s="4">
         <v>57</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1.333333333333333</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>408</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>449.66666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10103</v>
       </c>
@@ -519,20 +550,20 @@
       <c r="C4" s="4">
         <v>82</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>467.66666666666669</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10104</v>
       </c>
@@ -542,20 +573,23 @@
       <c r="C5" s="4">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>329</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>358.66666666666669</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10106</v>
       </c>
@@ -565,20 +599,26 @@
       <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <v>498.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>509.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10107</v>
       </c>
@@ -588,20 +628,26 @@
       <c r="C7" s="4">
         <v>63</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>69</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10108</v>
       </c>
@@ -611,20 +657,26 @@
       <c r="C8" s="4">
         <v>53</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1.666666666666667</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>440.66666666666669</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>481.33333333333331</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10109</v>
       </c>
@@ -634,20 +686,26 @@
       <c r="C9" s="4">
         <v>35</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
         <v>308</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10204</v>
       </c>
@@ -657,20 +715,26 @@
       <c r="C10" s="4">
         <v>71</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>385</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>402</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10205</v>
       </c>
@@ -680,20 +744,20 @@
       <c r="C11" s="4">
         <v>61</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
         <v>459</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10301</v>
       </c>
@@ -703,20 +767,20 @@
       <c r="C12" s="4">
         <v>78</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>25</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>154.66666666666671</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>161.66666666666671</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10302</v>
       </c>
@@ -726,20 +790,20 @@
       <c r="C13" s="4">
         <v>39</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <v>244</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>509.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10303</v>
       </c>
@@ -749,20 +813,20 @@
       <c r="C14" s="4">
         <v>44</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>442.5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10304</v>
       </c>
@@ -772,20 +836,20 @@
       <c r="C15" s="4">
         <v>88</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>94.666666666666671</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>100.3333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10305</v>
       </c>
@@ -795,16 +859,16 @@
       <c r="C16" s="4">
         <v>74</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <v>409</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>447</v>
       </c>
     </row>
@@ -818,16 +882,16 @@
       <c r="C17" s="4">
         <v>60</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
         <v>413.5</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>450</v>
       </c>
     </row>
@@ -841,16 +905,16 @@
       <c r="C18" s="4">
         <v>88</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
         <v>298.5</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>322</v>
       </c>
     </row>
@@ -864,16 +928,16 @@
       <c r="C19" s="4">
         <v>51</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
         <v>11</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>349.5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>377</v>
       </c>
     </row>
@@ -887,16 +951,16 @@
       <c r="C20" s="4">
         <v>56</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
         <v>7</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>520</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>547</v>
       </c>
     </row>
@@ -910,16 +974,16 @@
       <c r="C21" s="4">
         <v>52</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>368.33333333333331</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>405.33333333333331</v>
       </c>
     </row>
@@ -933,16 +997,16 @@
       <c r="C22" s="4">
         <v>60</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>409.33333333333331</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>454.66666666666669</v>
       </c>
     </row>
@@ -956,16 +1020,16 @@
       <c r="C23" s="4">
         <v>56</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>619</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>636</v>
       </c>
     </row>
@@ -979,16 +1043,16 @@
       <c r="C24" s="4">
         <v>81</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>283.5</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>313.5</v>
       </c>
     </row>
@@ -1002,16 +1066,16 @@
       <c r="C25" s="4">
         <v>81</v>
       </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
         <v>1.333333333333333</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>655.66666666666663</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>710.33333333333337</v>
       </c>
     </row>
@@ -1025,16 +1089,16 @@
       <c r="C26" s="4">
         <v>62</v>
       </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>377.33333333333331</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>414.66666666666669</v>
       </c>
     </row>
@@ -1048,16 +1112,16 @@
       <c r="C27" s="4">
         <v>63</v>
       </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
         <v>342</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>391</v>
       </c>
     </row>
@@ -1071,16 +1135,16 @@
       <c r="C28" s="4">
         <v>81</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>351.5</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>398.5</v>
       </c>
     </row>
@@ -1094,16 +1158,16 @@
       <c r="C29" s="4">
         <v>25</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="9">
         <v>16</v>
       </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
         <v>423</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>453</v>
       </c>
     </row>
@@ -1117,16 +1181,16 @@
       <c r="C30" s="4">
         <v>54</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="9">
         <v>10</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>101</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>110</v>
       </c>
     </row>
@@ -1140,16 +1204,16 @@
       <c r="C31" s="4">
         <v>54</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
         <v>373</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>406</v>
       </c>
     </row>
@@ -1163,16 +1227,16 @@
       <c r="C32" s="4">
         <v>57</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
         <v>428</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>445</v>
       </c>
     </row>
@@ -1186,16 +1250,16 @@
       <c r="C33" s="4">
         <v>59</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
         <v>293</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>326</v>
       </c>
     </row>
@@ -1209,16 +1273,16 @@
       <c r="C34" s="4">
         <v>65</v>
       </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
         <v>404</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>423</v>
       </c>
     </row>
@@ -1232,16 +1296,16 @@
       <c r="C35" s="4">
         <v>58</v>
       </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
         <v>379</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>401</v>
       </c>
     </row>
@@ -1255,16 +1319,16 @@
       <c r="C36" s="4">
         <v>66</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
         <v>496</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>518</v>
       </c>
     </row>
@@ -1278,16 +1342,16 @@
       <c r="C37" s="4">
         <v>40</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
         <v>3</v>
       </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
         <v>463.6</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>503.2</v>
       </c>
     </row>
@@ -1301,16 +1365,16 @@
       <c r="C38" s="4">
         <v>78</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
         <v>415.6</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>451.2</v>
       </c>
     </row>
@@ -1324,16 +1388,16 @@
       <c r="C39" s="4">
         <v>60</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="9">
         <v>3</v>
       </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
         <v>404.4</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>411.6</v>
       </c>
     </row>
@@ -1347,16 +1411,16 @@
       <c r="C40" s="4">
         <v>75</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="9">
         <v>6</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>367.5</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>394</v>
       </c>
     </row>
@@ -1370,16 +1434,16 @@
       <c r="C41" s="4">
         <v>26</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="9">
         <v>25</v>
       </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
         <v>68.5</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>77</v>
       </c>
     </row>
@@ -1393,16 +1457,16 @@
       <c r="C42" s="4">
         <v>15</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="9">
         <v>3</v>
       </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
         <v>373</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>398</v>
       </c>
     </row>
@@ -1416,16 +1480,16 @@
       <c r="C43" s="4">
         <v>52</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="9">
         <v>6</v>
       </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
         <v>484.5</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>509</v>
       </c>
     </row>
@@ -1439,16 +1503,16 @@
       <c r="C44" s="4">
         <v>26</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="9">
         <v>12</v>
       </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
         <v>431</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>465</v>
       </c>
     </row>
@@ -1462,16 +1526,16 @@
       <c r="C45" s="4">
         <v>34</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="9">
         <v>5</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>2</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>487.66666666666669</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>525</v>
       </c>
     </row>
@@ -1485,16 +1549,16 @@
       <c r="C46" s="4">
         <v>62</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="9">
         <v>3</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>1.4</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>504.8</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>557.79999999999995</v>
       </c>
     </row>
@@ -1508,16 +1572,16 @@
       <c r="C47" s="4">
         <v>54</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="9">
         <v>3</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>1.4</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>541.79999999999995</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>588.6</v>
       </c>
     </row>
@@ -1531,16 +1595,16 @@
       <c r="C48" s="4">
         <v>59</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="9">
         <v>3</v>
       </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
         <v>480</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>489.5</v>
       </c>
     </row>
@@ -1554,16 +1618,16 @@
       <c r="C49" s="4">
         <v>21</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
         <v>21</v>
       </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
         <v>313</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>333</v>
       </c>
     </row>
@@ -1577,16 +1641,16 @@
       <c r="C50" s="4">
         <v>21</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="9">
         <v>6</v>
       </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
         <v>353</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>369</v>
       </c>
     </row>
@@ -1600,16 +1664,16 @@
       <c r="C51" s="4">
         <v>51</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
         <v>458.5</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>511</v>
       </c>
     </row>
@@ -1623,16 +1687,16 @@
       <c r="C52" s="4">
         <v>37</v>
       </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
         <v>556.5</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>625.5</v>
       </c>
     </row>
@@ -1646,16 +1710,16 @@
       <c r="C53" s="4">
         <v>65</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="9">
         <v>6</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>1.75</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>311.25</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>349.75</v>
       </c>
     </row>
@@ -1669,16 +1733,16 @@
       <c r="C54" s="4">
         <v>62</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="9">
         <v>6</v>
       </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
         <v>519.66666666666663</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>564.66666666666663</v>
       </c>
     </row>
@@ -1692,16 +1756,16 @@
       <c r="C55" s="4">
         <v>75</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="9">
         <v>3</v>
       </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
         <v>410</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>436.8</v>
       </c>
     </row>
@@ -1715,16 +1779,16 @@
       <c r="C56" s="4">
         <v>69</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="9">
         <v>9</v>
       </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
         <v>484</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>530</v>
       </c>
     </row>
@@ -1738,16 +1802,16 @@
       <c r="C57" s="4">
         <v>90</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="9">
         <v>14</v>
       </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
         <v>437.66666666666669</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>458.66666666666669</v>
       </c>
     </row>
@@ -1761,16 +1825,16 @@
       <c r="C58" s="4">
         <v>44</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="9">
         <v>13</v>
       </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
         <v>386</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>433.33333333333331</v>
       </c>
     </row>
@@ -1784,16 +1848,16 @@
       <c r="C59" s="4">
         <v>42</v>
       </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
         <v>547</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>586</v>
       </c>
     </row>
@@ -1807,16 +1871,16 @@
       <c r="C60" s="4">
         <v>54</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="9">
         <v>14</v>
       </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
         <v>390.33333333333331</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>419.66666666666669</v>
       </c>
     </row>
@@ -1827,47 +1891,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="4"/>
-    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10101</v>
       </c>
@@ -1877,20 +1941,20 @@
       <c r="C2" s="4">
         <v>24</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
         <v>27</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>10102</v>
       </c>
@@ -1900,20 +1964,20 @@
       <c r="C3" s="4">
         <v>57</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
         <v>119</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10103</v>
       </c>
@@ -1923,20 +1987,20 @@
       <c r="C4" s="4">
         <v>82</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>485.66666666666669</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>509.66666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10104</v>
       </c>
@@ -1946,20 +2010,23 @@
       <c r="C5" s="4">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>329</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>358.66666666666669</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10106</v>
       </c>
@@ -1969,20 +2036,26 @@
       <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <v>443</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10107</v>
       </c>
@@ -1992,20 +2065,26 @@
       <c r="C7" s="4">
         <v>63</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>148</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10108</v>
       </c>
@@ -2015,20 +2094,26 @@
       <c r="C8" s="4">
         <v>53</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>249.5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>264.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10109</v>
       </c>
@@ -2038,20 +2123,26 @@
       <c r="C9" s="4">
         <v>35</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>474.75</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>485.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10204</v>
       </c>
@@ -2061,20 +2152,26 @@
       <c r="C10" s="4">
         <v>71</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1.5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>416.5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>440.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10205</v>
       </c>
@@ -2084,20 +2181,20 @@
       <c r="C11" s="4">
         <v>61</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
         <v>439</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10301</v>
       </c>
@@ -2107,20 +2204,20 @@
       <c r="C12" s="4">
         <v>78</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>25</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>460.5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10302</v>
       </c>
@@ -2130,20 +2227,20 @@
       <c r="C13" s="4">
         <v>39</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1.25</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>240.75</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>513.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10303</v>
       </c>
@@ -2153,20 +2250,20 @@
       <c r="C14" s="4">
         <v>44</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>186</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10304</v>
       </c>
@@ -2176,20 +2273,20 @@
       <c r="C15" s="4">
         <v>88</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>510.8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>542.4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10305</v>
       </c>
@@ -2199,16 +2296,16 @@
       <c r="C16" s="4">
         <v>74</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <v>201</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>202</v>
       </c>
     </row>
@@ -2222,16 +2319,16 @@
       <c r="C17" s="4">
         <v>60</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
         <v>511</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>536</v>
       </c>
     </row>
@@ -2245,16 +2342,16 @@
       <c r="C18" s="4">
         <v>88</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
         <v>295</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>304.5</v>
       </c>
     </row>
@@ -2268,16 +2365,16 @@
       <c r="C19" s="4">
         <v>51</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
         <v>11</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>573</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>612</v>
       </c>
     </row>
@@ -2291,16 +2388,16 @@
       <c r="C20" s="4">
         <v>56</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
         <v>7</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>346</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>350</v>
       </c>
     </row>
@@ -2314,16 +2411,16 @@
       <c r="C21" s="4">
         <v>52</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>391.25</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>417.25</v>
       </c>
     </row>
@@ -2337,16 +2434,16 @@
       <c r="C22" s="4">
         <v>60</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>425.2</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>455.4</v>
       </c>
     </row>
@@ -2360,16 +2457,16 @@
       <c r="C23" s="4">
         <v>56</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>3</v>
       </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>593</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>620</v>
       </c>
     </row>
@@ -2383,16 +2480,16 @@
       <c r="C24" s="4">
         <v>81</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>409.4</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>452.6</v>
       </c>
     </row>
@@ -2406,16 +2503,16 @@
       <c r="C25" s="4">
         <v>81</v>
       </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
         <v>605.6</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>634.6</v>
       </c>
     </row>
@@ -2429,16 +2526,16 @@
       <c r="C26" s="4">
         <v>62</v>
       </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>161</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>218</v>
       </c>
     </row>
@@ -2452,16 +2549,16 @@
       <c r="C27" s="4">
         <v>63</v>
       </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
         <v>441</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>508.5</v>
       </c>
     </row>
@@ -2475,16 +2572,16 @@
       <c r="C28" s="4">
         <v>81</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>512</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>549.33333333333337</v>
       </c>
     </row>
@@ -2498,16 +2595,16 @@
       <c r="C29" s="4">
         <v>25</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="9">
         <v>16</v>
       </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
         <v>714</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>724</v>
       </c>
     </row>
@@ -2521,16 +2618,16 @@
       <c r="C30" s="4">
         <v>54</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="9">
         <v>10</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>95</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>101</v>
       </c>
     </row>
@@ -2544,16 +2641,16 @@
       <c r="C31" s="4">
         <v>54</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
         <v>184</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>197</v>
       </c>
     </row>
@@ -2567,16 +2664,16 @@
       <c r="C32" s="4">
         <v>57</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
         <v>412.25</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>462.75</v>
       </c>
     </row>
@@ -2590,16 +2687,16 @@
       <c r="C33" s="4">
         <v>59</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
         <v>115.8</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>239.2</v>
       </c>
     </row>
@@ -2613,16 +2710,16 @@
       <c r="C34" s="4">
         <v>65</v>
       </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
         <v>543.20000000000005</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>571.6</v>
       </c>
     </row>
@@ -2636,16 +2733,16 @@
       <c r="C35" s="4">
         <v>58</v>
       </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
         <v>311</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>324</v>
       </c>
     </row>
@@ -2659,16 +2756,16 @@
       <c r="C36" s="4">
         <v>66</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
         <v>1.2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>397.6</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>422</v>
       </c>
     </row>
@@ -2682,16 +2779,16 @@
       <c r="C37" s="4">
         <v>40</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
         <v>3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>1.5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>414.5</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>435</v>
       </c>
     </row>
@@ -2705,16 +2802,16 @@
       <c r="C38" s="4">
         <v>78</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>386.8</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>421.8</v>
       </c>
     </row>
@@ -2728,16 +2825,16 @@
       <c r="C39" s="4">
         <v>60</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="9">
         <v>3</v>
       </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
         <v>464.5</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>486.5</v>
       </c>
     </row>
@@ -2751,16 +2848,16 @@
       <c r="C40" s="4">
         <v>75</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="9">
         <v>6</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>63</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>71</v>
       </c>
     </row>
@@ -2774,16 +2871,16 @@
       <c r="C41" s="4">
         <v>26</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="9">
         <v>25</v>
       </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
         <v>68.5</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>77</v>
       </c>
     </row>
@@ -2797,16 +2894,16 @@
       <c r="C42" s="4">
         <v>15</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="9">
         <v>3</v>
       </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
         <v>412.5</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>435</v>
       </c>
     </row>
@@ -2820,16 +2917,16 @@
       <c r="C43" s="4">
         <v>52</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="9">
         <v>6</v>
       </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
         <v>410</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>416</v>
       </c>
     </row>
@@ -2843,16 +2940,16 @@
       <c r="C44" s="4">
         <v>26</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="9">
         <v>12</v>
       </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
         <v>255.33333333333329</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>272.66666666666669</v>
       </c>
     </row>
@@ -2866,16 +2963,16 @@
       <c r="C45" s="4">
         <v>34</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="9">
         <v>5</v>
       </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
         <v>394.25</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>428.5</v>
       </c>
     </row>
@@ -2889,16 +2986,16 @@
       <c r="C46" s="4">
         <v>62</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="9">
         <v>3</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>1.333333333333333</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>388</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>448.66666666666669</v>
       </c>
     </row>
@@ -2912,16 +3009,16 @@
       <c r="C47" s="4">
         <v>54</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="9">
         <v>3</v>
       </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
         <v>251</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>252.5</v>
       </c>
     </row>
@@ -2935,16 +3032,16 @@
       <c r="C48" s="4">
         <v>59</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="9">
         <v>3</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>2</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>453</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>472</v>
       </c>
     </row>
@@ -2958,16 +3055,16 @@
       <c r="C49" s="4">
         <v>21</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
         <v>21</v>
       </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
         <v>313</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>333</v>
       </c>
     </row>
@@ -2981,16 +3078,16 @@
       <c r="C50" s="4">
         <v>21</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="9">
         <v>6</v>
       </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
         <v>237.66666666666671</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>261</v>
       </c>
     </row>
@@ -3004,16 +3101,16 @@
       <c r="C51" s="4">
         <v>51</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
         <v>498.25</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>550.25</v>
       </c>
     </row>
@@ -3027,16 +3124,16 @@
       <c r="C52" s="4">
         <v>37</v>
       </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
         <v>1.333333333333333</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>331</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>352.33333333333331</v>
       </c>
     </row>
@@ -3050,16 +3147,16 @@
       <c r="C53" s="4">
         <v>65</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="9">
         <v>6</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>1.6</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>351.2</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>380.6</v>
       </c>
     </row>
@@ -3073,16 +3170,16 @@
       <c r="C54" s="4">
         <v>62</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="9">
         <v>6</v>
       </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
         <v>569</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>597.5</v>
       </c>
     </row>
@@ -3096,16 +3193,16 @@
       <c r="C55" s="4">
         <v>75</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="9">
         <v>3</v>
       </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
         <v>403</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>443</v>
       </c>
     </row>
@@ -3119,16 +3216,16 @@
       <c r="C56" s="4">
         <v>69</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="9">
         <v>9</v>
       </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
         <v>425</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>482</v>
       </c>
     </row>
@@ -3142,16 +3239,16 @@
       <c r="C57" s="4">
         <v>90</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="9">
         <v>14</v>
       </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
         <v>527.5</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>546.5</v>
       </c>
     </row>
@@ -3165,16 +3262,16 @@
       <c r="C58" s="4">
         <v>44</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="9">
         <v>13</v>
       </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
         <v>380.5</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>454.5</v>
       </c>
     </row>
@@ -3188,16 +3285,16 @@
       <c r="C59" s="4">
         <v>42</v>
       </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
         <v>519</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>548</v>
       </c>
     </row>
@@ -3211,16 +3308,16 @@
       <c r="C60" s="4">
         <v>54</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="9">
         <v>14</v>
       </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
         <v>428</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>463</v>
       </c>
     </row>
